--- a/output/item/TV받침대/2022-01-12_TV받침대.xlsx
+++ b/output/item/TV받침대/2022-01-12_TV받침대.xlsx
@@ -636,7 +636,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>49000</t>
+          <t>52900</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
@@ -745,22 +745,22 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>가구의가치 실버런 높은 tv 다이 장식장 거실장 1800</t>
+          <t>까르엠가구 고무나무 원목 로렌 티비다이 높은 TV 거실장 1500</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29636558619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21745817911</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2963655/29636558619.20211111160214.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2174581/21745817911.20200113103909.jpg</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>263990</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
@@ -776,12 +776,12 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>가구의가치</t>
+          <t>까르엠가구</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>트랜드가구</t>
+          <t>까르엠</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -807,22 +807,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>까르엠가구 고무나무 원목 로렌 티비다이 높은 TV 거실장 1500</t>
+          <t>가구의가치 아트 슬라이딩 높은 티비 다이 거실장 2000</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21745817911</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29619641619</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2174581/21745817911.20200113103909.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2961964/29619641619.20211110112234.jpg</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>250000</t>
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
@@ -838,12 +838,12 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>까르엠가구</t>
+          <t>가구의가치</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>까르엠</t>
+          <t>트랜드가구</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -869,22 +869,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>가구의가치 아트 슬라이딩 높은 티비 다이 거실장 2000</t>
+          <t>가구의가치 루핀 북유럽 슬라이딩 원목 티비 다이 거실장</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29619641619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30284977618</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2961964/29619641619.20211110112234.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3028497/30284977618.20211224175527.jpg</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>250000</t>
+          <t>325000</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
@@ -993,22 +993,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>가구의가치 루핀 북유럽 슬라이딩 원목 티비 다이 거실장</t>
+          <t>가구의가치 아트 서랍형 TV 다이 장식장 거실장 2200</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30284977618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29604120618</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3028497/30284977618.20211224175527.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2960412/29604120618.20211109102200.jpg</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>325000</t>
+          <t>270000</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
@@ -1055,43 +1055,43 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>가구의가치 아트 서랍형 TV 다이 장식장 거실장 2200</t>
+          <t>미니 원룸 1인가구 티비다이 거실 TV장식장 1000</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29604120618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82041896511</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2960412/29604120618.20211109102200.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8204189/82041896511.1.jpg</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>270000</t>
+          <t>25900</t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>블레스가구</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>가구의가치</t>
+          <t>블레스가구</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>트랜드가구</t>
+          <t>블레스가구</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1117,43 +1117,39 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>미니 원룸 1인가구 티비다이 거실 TV장식장 1000</t>
+          <t>델라 1500 모던 TV다이 장식장</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82041896511</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21969613094</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8204189/82041896511.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2196961/21969613094.20200214141205.jpg</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>25900</t>
+          <t>133000</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
-          <t>블레스가구</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>블레스가구</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr">
         <is>
-          <t>블레스가구</t>
+          <t>잇머스트</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1179,22 +1175,22 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>델라 1500 모던 TV다이 장식장</t>
+          <t>까르엠가구 고무나무 원목 로렌 티비다이 2000 높은 TV 거실장</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21969613094</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21714759759</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2196961/21969613094.20200214141205.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2171475/21714759759.20210629144507.jpg</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>133000</t>
+          <t>244000</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
@@ -1208,10 +1204,14 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>까르엠가구</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>잇머스트</t>
+          <t>까르엠</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1237,22 +1237,22 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>까르엠가구 고무나무 원목 로렌 티비다이 2000 높은 TV 거실장</t>
+          <t>나누벨 엘프 1800 템바보드 높은 TV 다이 거실장</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21714759759</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29045922586</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2171475/21714759759.20210629144507.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2904592/29045922586.20211007134703.jpg</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>244000</t>
+          <t>179900</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1268,12 +1268,12 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>까르엠가구</t>
+          <t>나누벨</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>까르엠</t>
+          <t>나누벨</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1299,43 +1299,43 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>나누벨 엘프 1800 템바보드 높은 TV 다이 거실장</t>
+          <t>한스 1600/ 2000 고무나무 원목 TV다이 서랍장 LED 조명 거실장</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29045922586</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82846565668</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2904592/29045922586.20211007134703.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8284656/82846565668.8.jpg</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>179900</t>
+          <t>199000</t>
         </is>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>보니애가구</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>나누벨</t>
+          <t>보니애가구</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>나누벨</t>
+          <t>보니애가구</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1361,33 +1361,33 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>한스 1600/ 2000 고무나무 원목 TV다이 서랍장 LED 조명 거실장</t>
+          <t>보니애가구 레나 고무나무 원목 TV다이 1800 거실장</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82846565668</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24439753524</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8284656/82846565668.8.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2443975/24439753524.20201013114257.jpg</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>199000</t>
+          <t>198000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
-          <t>보니애가구</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1423,22 +1423,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>보니애가구 레나 고무나무 원목 TV다이 1800 거실장</t>
+          <t>가구의가치 실버런 높은 tv 다이 장식장 거실장 1800</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24439753524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29636558619</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2443975/24439753524.20201013114257.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2963655/29636558619.20211111160214.jpg</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>198000</t>
+          <t>263990</t>
         </is>
       </c>
       <c r="F18" t="inlineStr"/>
@@ -1454,12 +1454,12 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>보니애가구</t>
+          <t>가구의가치</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>보니애가구</t>
+          <t>트랜드가구</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1969,22 +1969,22 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>까르엠가구 루버린 1200 참죽나무 원목 TV다이 높은거실장</t>
+          <t>나누벨 니타 원목 높은 거실장 tv 다이 2000</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24905124522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=30142296618</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2490512/24905124522.20210629132026.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_3014229/30142296618.20211216101304.jpg</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>194000</t>
+          <t>235000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
@@ -2000,12 +2000,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>까르엠가구</t>
+          <t>나누벨</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>까르엠</t>
+          <t>나누벨</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2031,22 +2031,22 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>나누벨 니타 원목 높은 거실장 tv 다이 2000</t>
+          <t>보니애가구 마리 2000 TV다이 수납장 LED 조명 거실장</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=30142296618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29989347625</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_3014229/30142296618.20211216101304.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2998934/29989347625.20211207180911.jpg</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>235000</t>
+          <t>184400</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
@@ -2062,12 +2062,12 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>나누벨</t>
+          <t>보니애가구</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>나누벨</t>
+          <t>보니애가구</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2093,22 +2093,22 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>보니애가구 마리 2000 TV다이 수납장 LED 조명 거실장</t>
+          <t>나누벨 로다스 템바보드 높은 TV 다이 거실장</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29989347625</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29487964618</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2998934/29989347625.20211207180911.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2948796/29487964618.20211101112317.jpg</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>184450</t>
+          <t>311900</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>보니애가구</t>
+          <t>나누벨</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>보니애가구</t>
+          <t>나누벨</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2155,22 +2155,22 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>나누벨 로다스 템바보드 높은 TV 다이 거실장</t>
+          <t>나누벨 폰체 원목 슬림 TV 다이 거실장 선반 1800</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29487964618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29298028618</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2948796/29487964618.20211101112317.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2929802/29298028618.20211019100033.jpg</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>311900</t>
+          <t>157400</t>
         </is>
       </c>
       <c r="F30" t="inlineStr"/>
@@ -2279,43 +2279,43 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>나누벨 폰체 원목 슬림 TV 다이 거실장 선반 1800</t>
+          <t>거실장 높은 티비다이 철제TV장 선반서랍장 받침대 화이트 엔틱안방 이케아</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29298028618</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82587481834</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2929802/29298028618.20211019100033.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8258748/82587481834.4.jpg</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>157400</t>
+          <t>94900</t>
         </is>
       </c>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>브랜디홈</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>나누벨</t>
+          <t>마켓비</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>나누벨</t>
+          <t>마켓비</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2341,28 +2341,28 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>거실장 높은 티비다이 철제TV장 선반서랍장 받침대 화이트 엔틱안방 이케아</t>
+          <t>모리스 거실장 TV 장 티비 다이 선반 장식장 서랍장 600 1200 1500</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82587481834</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=80191551581</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8258748/82587481834.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8019155/80191551581.4.jpg</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>94900</t>
+          <t>29900</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>브랜디홈</t>
+          <t>룸앤홈</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -2372,12 +2372,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>마켓비</t>
+          <t>룸앤홈</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>마켓비</t>
+          <t>서흥인터내셔날</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2403,43 +2403,43 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>모리스 거실장 TV 장 티비 다이 선반 장식장 서랍장 600 1200 1500</t>
+          <t>까르엠가구 루버린 1200 참죽나무 원목 TV다이 높은거실장</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=80191551581</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24905124522</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8019155/80191551581.4.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2490512/24905124522.20210629132026.jpg</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>29900</t>
+          <t>194000</t>
         </is>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>룸앤홈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
         <is>
-          <t>룸앤홈</t>
+          <t>까르엠가구</t>
         </is>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>서흥인터내셔날</t>
+          <t>까르엠</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -2465,43 +2465,43 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>가구의가치 아트 슬라이딩 선반 티비 다이 거실장 2200</t>
+          <t>이케아 거실장 모듈 TV장 티비다이 거실 서랍장 선반 높은 낮은 안방 원룸 시스템</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29604289619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82778868704</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2960428/29604289619.20211109105040.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8277886/82778868704.jpg</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>277000</t>
+          <t>39800</t>
         </is>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>미니미니멀</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>가구의가치</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>트랜드가구</t>
+          <t>이케아</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -2527,28 +2527,28 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>이케아 거실장 모듈 TV장 티비다이 거실 서랍장 선반 높은 낮은 안방 원룸 시스템</t>
+          <t>원목거실장 TV 다이 높은 북유럽 티비장 엔틱 수납장 장식장 서랍장 안방미니 티브 이케아</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82778868704</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82593937110</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8277886/82778868704.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8259393/82593937110.6.jpg</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>39800</t>
+          <t>129000</t>
         </is>
       </c>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>미니미니멀</t>
+          <t>브랜디홈</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
@@ -2558,12 +2558,12 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>마켓비</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>마켓비</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -2589,43 +2589,43 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>원목거실장 TV 다이 높은 북유럽 티비장 엔틱 수납장 장식장 서랍장 안방미니 티브 이케아</t>
+          <t>가구의가치 아트 슬라이딩 선반 티비 다이 거실장 2200</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82593937110</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29604289619</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8259393/82593937110.6.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2960428/29604289619.20211109105040.jpg</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>129000</t>
+          <t>273680</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>브랜디홈</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>마켓비</t>
+          <t>가구의가치</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>마켓비</t>
+          <t>트랜드가구</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -2953,45 +2953,41 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>마레앤코 거실장 스타이너 2400 세트 티비다이</t>
+          <t>[희망일배송] 페라모 아리아 대리석 티비다이 TV 확장형 거실장</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=19912529596</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=12947681182</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1991252/19912529596.20190625111541.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1294768/12947681182.2.jpg</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>188100</t>
+          <t>450000</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>페라모</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>마레앤코</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>소니언컴퍼니</t>
-        </is>
-      </c>
+          <t>페라모</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -3015,41 +3011,45 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>[희망일배송] 페라모 아리아 대리석 티비다이 TV 확장형 거실장</t>
+          <t>마레앤코 거실장 스타이너 2400 세트 티비다이</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=12947681182</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=19912529596</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_1294768/12947681182.2.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_1991252/19912529596.20190625111541.jpg</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>450000</t>
+          <t>189000</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>페라모</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>페라모</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr"/>
+          <t>마레앤코</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>소니언컴퍼니</t>
+        </is>
+      </c>
       <c r="K44" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4361,41 +4361,45 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>[희망일배송] 페라모 이글루 2100 2800 대리석 티비다이 TV 거실장</t>
+          <t>나누벨 비앙 슬라이딩 높은 원목 TV 다이 거실장</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82311952645</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=29487881619</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8231195/82311952645.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2948788/29487881619.20211101111854.jpg</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>559000</t>
+          <t>326800</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
-          <t>페라모</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>페라모</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr"/>
+          <t>나누벨</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>나누벨</t>
+        </is>
+      </c>
       <c r="K67" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4481,45 +4485,41 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>나누벨 비앙 슬라이딩 높은 원목 TV 다이 거실장</t>
+          <t>[희망일배송] 페라모 이글루 2100 2800 대리석 티비다이 TV 거실장</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=29487881619</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82311952645</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2948788/29487881619.20211101111854.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8231195/82311952645.1.jpg</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>326800</t>
+          <t>559000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>페라모</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>나누벨</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>나누벨</t>
-        </is>
-      </c>
+          <t>페라모</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4543,37 +4543,45 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>낮은 티비 거실 서랍장 티비다이 75 65인치 tv장</t>
+          <t>레트로하우스 헤세 라탄 1800 원목 TV다이 템바보드 거실장</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=82741845962</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=28094249522</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8274184/82741845962.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2809424/28094249522.20210721143419.jpg</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>57000</t>
+          <t>349000</t>
         </is>
       </c>
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>리빙 인테리어 추천 샵</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>레트로하우스</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>레트로하우스</t>
+        </is>
+      </c>
       <c r="K70" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4597,41 +4605,37 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>토리 1800 거실 tv 장식장 티비다이 거실장</t>
+          <t>낮은 티비 거실 서랍장 티비다이 75 65인치 tv장</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=23344773493</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=82741845962</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2334477/23344773493.20200703174118.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8274184/82741845962.jpg</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>109000</t>
+          <t>57000</t>
         </is>
       </c>
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>리빙 인테리어 추천 샵</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>잇머스트</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4655,43 +4659,39 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>동서가구 소프 LED 확장형 낮은거실장 TV다이</t>
+          <t>토리 1800 거실 tv 장식장 티비다이 거실장</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83522710703</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=23344773493</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8352271/83522710703.1.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2334477/23344773493.20200703174118.jpg</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>179000</t>
+          <t>109000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>동서가구온라인</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>동서가구</t>
-        </is>
-      </c>
+          <t>일반 - 가격비교 상품</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr">
         <is>
-          <t>동서카살라</t>
+          <t>잇머스트</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -4717,28 +4717,28 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>오드 1800 높은 거실장 원목 거실 장식 TV 장 다이 티비장 티브 다이 템바보드</t>
+          <t>동서가구 소프 LED 확장형 낮은거실장 TV다이</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=83026239613</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83522710703</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8302623/83026239613.10.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8352271/83522710703.1.jpg</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>328900</t>
+          <t>179000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr"/>
       <c r="G73" t="inlineStr">
         <is>
-          <t>나만의공간컴퍼니</t>
+          <t>동서가구온라인</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
@@ -4746,8 +4746,16 @@
           <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>동서가구</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>동서카살라</t>
+        </is>
+      </c>
       <c r="K73" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4771,41 +4779,37 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>텐져 원목 티비다이 TV거실장 2000</t>
+          <t>오드 1800 높은 거실장 원목 거실 장식 TV 장 다이 티비장 티브 다이 템바보드</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=22056562012</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=83026239613</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2205656/22056562012.20200521123850.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_8302623/83026239613.10.jpg</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>159000</t>
+          <t>328900</t>
         </is>
       </c>
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>네이버</t>
+          <t>나만의공간컴퍼니</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 상품</t>
+          <t>일반 - 가격비교 비매칭 일반상품</t>
         </is>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>브라솔</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr">
         <is>
           <t>가구/인테리어</t>
@@ -4829,22 +4833,22 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>YLB퍼니처 샤인 1500 TV선반 TV다이서랍장 낮은거실장</t>
+          <t>텐져 원목 티비다이 TV거실장 2000</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=21715051224</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=22056562012</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2171505/21715051224.20200915164405.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2205656/22056562012.20200521123850.jpg</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>69900</t>
+          <t>159000</t>
         </is>
       </c>
       <c r="F75" t="inlineStr"/>
@@ -4858,14 +4862,10 @@
           <t>일반 - 가격비교 상품</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>YLB퍼니처</t>
-        </is>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr">
         <is>
-          <t>YLB퍼니처</t>
+          <t>브라솔</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -4891,22 +4891,22 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>더리체 미엘 엔틱 거실장 티비다이</t>
+          <t>YLB퍼니처 샤인 1500 TV선반 TV다이서랍장 낮은거실장</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=24235825524</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=21715051224</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2423582/24235825524.20200922104429.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2171505/21715051224.20200915164405.jpg</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>398100</t>
+          <t>69900</t>
         </is>
       </c>
       <c r="F76" t="inlineStr"/>
@@ -4922,12 +4922,12 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>더리체</t>
+          <t>YLB퍼니처</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>더리체</t>
+          <t>YLB퍼니처</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -4953,22 +4953,22 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>레트로하우스 헤세 라탄 1800 원목 TV다이 템바보드 거실장</t>
+          <t>더리체 미엘 엔틱 거실장 티비다이</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=28094249522</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=24235825524</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_2809424/28094249522.20210721143419.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2423582/24235825524.20200922104429.jpg</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>349000</t>
+          <t>398100</t>
         </is>
       </c>
       <c r="F77" t="inlineStr"/>
@@ -4984,12 +4984,12 @@
       </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>레트로하우스</t>
+          <t>더리체</t>
         </is>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>레트로하우스</t>
+          <t>더리체</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6385,43 +6385,43 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>(당일출고) 이케아 선반 LACK 라크 TV장식장</t>
+          <t>삼익가구 캔턴 1800 티비다이 높은 거실장</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>https://search.shopping.naver.com/gate.nhn?id=81604073784</t>
+          <t>https://search.shopping.naver.com/gate.nhn?id=25485292523</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>https://shopping-phinf.pstatic.net/main_8160407/81604073784.jpg</t>
+          <t>https://shopping-phinf.pstatic.net/main_2548529/25485292523.20210104143838.jpg</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>15900</t>
+          <t>131840</t>
         </is>
       </c>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>IKEA BESTSHOP</t>
+          <t>네이버</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>일반 - 가격비교 비매칭 일반상품</t>
+          <t>일반 - 가격비교 상품</t>
         </is>
       </c>
       <c r="I101" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>삼익가구</t>
         </is>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>이케아</t>
+          <t>삼익가구</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
